--- a/table/permanova/env_permanova.xlsx
+++ b/table/permanova/env_permanova.xlsx
@@ -390,13 +390,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>14.88618535436506</v>
+        <v>14.88618535436505</v>
       </c>
       <c r="C2">
-        <v>0.2126597907766437</v>
+        <v>0.2126597907766436</v>
       </c>
       <c r="D2">
-        <v>2.430890858321245</v>
+        <v>2.430890858321244</v>
       </c>
       <c r="E2">
         <v>0.0339</v>
@@ -474,13 +474,13 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>8319.482749629313</v>
+        <v>8319.482749629737</v>
       </c>
       <c r="C2">
-        <v>8319.482749629313</v>
+        <v>8319.482749629737</v>
       </c>
       <c r="D2">
-        <v>0.6918426229579175</v>
+        <v>0.6918426229579051</v>
       </c>
       <c r="E2">
         <v>9999</v>
@@ -494,10 +494,10 @@
         <v>9</v>
       </c>
       <c r="B3">
-        <v>108225.9783685201</v>
+        <v>108225.9783685276</v>
       </c>
       <c r="C3">
-        <v>12025.10870761335</v>
+        <v>12025.10870761418</v>
       </c>
     </row>
   </sheetData>
